--- a/Python/Data/Final/lung.xlsx
+++ b/Python/Data/Final/lung.xlsx
@@ -7,24 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AZ_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
     <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="AZ_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="4" r:id="rId4"/>
-    <sheet name="AZ_ASCTB_Cts_perfect_matches" sheetId="5" r:id="rId5"/>
-    <sheet name="AZ_cts_not_found_in_ebi" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_not_found_in_ebi" sheetId="7" r:id="rId7"/>
-    <sheet name="AZ_mismatches_summary" sheetId="8" r:id="rId8"/>
-    <sheet name="Asctb_mismatches_summary" sheetId="9" r:id="rId9"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="10" r:id="rId10"/>
-    <sheet name="AZ_cts_mismatch_final" sheetId="11" r:id="rId11"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_corsswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_corsswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="325">
   <si>
     <t>CT/ID</t>
   </si>
@@ -68,382 +66,382 @@
     <t>resident memory CD8 T cell</t>
   </si>
   <si>
+    <t>AZ.CT/ID</t>
+  </si>
+  <si>
+    <t>AZ.CT/LABEL</t>
+  </si>
+  <si>
+    <t>ASCTB.CT/ID</t>
+  </si>
+  <si>
+    <t>ASCTB.CT/LABEL</t>
+  </si>
+  <si>
+    <t>CL:0002062</t>
+  </si>
+  <si>
+    <t>CL:0002063</t>
+  </si>
+  <si>
+    <t>CL:0000236</t>
+  </si>
+  <si>
+    <t>CL:0000158</t>
+  </si>
+  <si>
+    <t>CL:0000186</t>
+  </si>
+  <si>
+    <t>CL:0000623</t>
+  </si>
+  <si>
+    <t>CL:0000814</t>
+  </si>
+  <si>
+    <t>CL:0000669</t>
+  </si>
+  <si>
+    <t>CL:0000786</t>
+  </si>
+  <si>
+    <t>CL:0000784</t>
+  </si>
+  <si>
+    <t>CL:0000895</t>
+  </si>
+  <si>
+    <t>CL:0000900</t>
+  </si>
+  <si>
+    <t>CL:0000860</t>
+  </si>
+  <si>
+    <t>CL:0000875</t>
+  </si>
+  <si>
+    <t>type I pneumocyte</t>
+  </si>
+  <si>
+    <t>type II pneumocyte</t>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <t>club cell</t>
+  </si>
+  <si>
+    <t>myofibroblast cell</t>
+  </si>
+  <si>
+    <t>natural killer cell</t>
+  </si>
+  <si>
+    <t>mature NK T cell</t>
+  </si>
+  <si>
+    <t>pericyte cell</t>
+  </si>
+  <si>
+    <t>plasma cell</t>
+  </si>
+  <si>
+    <t>plasmacytoid dendritic cell</t>
+  </si>
+  <si>
+    <t>naive thymus-derived CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>naive thymus-derived CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>classical monocyte</t>
+  </si>
+  <si>
+    <t>non-classical monocyte</t>
+  </si>
+  <si>
+    <t>club cell of bronchiole</t>
+  </si>
+  <si>
+    <t>secondary crest myofibroblasts</t>
+  </si>
+  <si>
+    <t>natural killer</t>
+  </si>
+  <si>
+    <t>NK T cell</t>
+  </si>
+  <si>
+    <t>pericyte</t>
+  </si>
+  <si>
+    <t>CD4+ T cell naive</t>
+  </si>
+  <si>
+    <t>CD8+ T cell naive</t>
+  </si>
+  <si>
+    <t>Classical Monocyte</t>
+  </si>
+  <si>
+    <t>Non-classical monocyte</t>
+  </si>
+  <si>
+    <t>CL:1000388</t>
+  </si>
+  <si>
+    <t>LMHA:00142</t>
+  </si>
+  <si>
+    <t>LMHA:00087</t>
+  </si>
+  <si>
+    <t>LMHA:00143</t>
+  </si>
+  <si>
+    <t>LMHA:00693</t>
+  </si>
+  <si>
+    <t>LMHA:00238</t>
+  </si>
+  <si>
+    <t>LMHA:00340</t>
+  </si>
+  <si>
+    <t>LMHA:00805</t>
+  </si>
+  <si>
+    <t>LMHA:00209</t>
+  </si>
+  <si>
+    <t>LMHA:00213</t>
+  </si>
+  <si>
+    <t>brush cell of epithelium of trachea</t>
+  </si>
+  <si>
+    <t>ciliated cells of terminal ciliated ducts of tracheal submucosal glands</t>
+  </si>
+  <si>
+    <t>basal cells of terminal ciliated ducts of tracheal submucosal glands</t>
+  </si>
+  <si>
+    <t>secretory cells of terminal ciliated ducts of tracheal submucosal glands</t>
+  </si>
+  <si>
+    <t>epithelial cells of collecting ducts of tracheal submucosal glands</t>
+  </si>
+  <si>
+    <t>mucus cells of tracheal submucosal glands</t>
+  </si>
+  <si>
+    <t>serous cells of tracheal submucosal glands</t>
+  </si>
+  <si>
+    <t>Venous endothelial cell</t>
+  </si>
+  <si>
+    <t>ciliated cells of terminal ciliated ducts of submucosal glands</t>
+  </si>
+  <si>
+    <t>basal cells of terminal ciliated ducts of submucosal glands</t>
+  </si>
+  <si>
+    <t>secretory cells of terminal ciliated ducts of submucosal glands</t>
+  </si>
+  <si>
+    <t>epithelial cells of collecting ducts of submucosal glands</t>
+  </si>
+  <si>
+    <t>mucus cells of submucosal glands</t>
+  </si>
+  <si>
+    <t>serous cells of submucosal glands</t>
+  </si>
+  <si>
+    <t>Pulmonary vein endothelial cell</t>
+  </si>
+  <si>
+    <t>venous endothelial cell</t>
+  </si>
+  <si>
+    <t>Interstitial macrophage</t>
+  </si>
+  <si>
+    <t>Match Found</t>
+  </si>
+  <si>
+    <t>Hierarchy Length</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>CL:0000057</t>
+  </si>
+  <si>
+    <t>CL:0000192</t>
+  </si>
+  <si>
     <t>UBERON:0001637</t>
   </si>
   <si>
+    <t>CL:0000646</t>
+  </si>
+  <si>
+    <t>CL:0000766</t>
+  </si>
+  <si>
+    <t>CL:0002328</t>
+  </si>
+  <si>
     <t>UBERON:0001982</t>
   </si>
   <si>
+    <t>CL:0002144</t>
+  </si>
+  <si>
+    <t>CL:0000624</t>
+  </si>
+  <si>
+    <t>CL:0000625</t>
+  </si>
+  <si>
+    <t>CL:0000064</t>
+  </si>
+  <si>
+    <t>CL:0002057</t>
+  </si>
+  <si>
+    <t>CL:0000451</t>
+  </si>
+  <si>
+    <t>CL:0000160</t>
+  </si>
+  <si>
+    <t>CL:0002396</t>
+  </si>
+  <si>
+    <t>CL:0005006</t>
+  </si>
+  <si>
     <t>UBERON:0001473</t>
   </si>
   <si>
+    <t>CL:0000235</t>
+  </si>
+  <si>
+    <t>CL:0000077</t>
+  </si>
+  <si>
+    <t>CL:0000319</t>
+  </si>
+  <si>
+    <t>CL:0000165</t>
+  </si>
+  <si>
+    <t>CL:0000763</t>
+  </si>
+  <si>
+    <t>CL:0000542</t>
+  </si>
+  <si>
+    <t>CL:0000313</t>
+  </si>
+  <si>
     <t>UBERON:0001638</t>
   </si>
   <si>
     <t>UBERON:0004225</t>
   </si>
   <si>
+    <t>CL:0002393</t>
+  </si>
+  <si>
+    <t>CL:0000782</t>
+  </si>
+  <si>
+    <t>CL:0000359</t>
+  </si>
+  <si>
+    <t>fibroblast</t>
+  </si>
+  <si>
+    <t>smooth muscle cell</t>
+  </si>
+  <si>
     <t>artery</t>
   </si>
   <si>
+    <t>basal cell</t>
+  </si>
+  <si>
+    <t>myeloid leukocyte</t>
+  </si>
+  <si>
+    <t>bronchial epithelial cell</t>
+  </si>
+  <si>
     <t>capillary</t>
   </si>
   <si>
+    <t>capillary endothelial cell</t>
+  </si>
+  <si>
+    <t>CD4-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>CD8-positive, alpha-beta T cell</t>
+  </si>
+  <si>
+    <t>ciliated cell</t>
+  </si>
+  <si>
+    <t>CD14-positive, CD16-negative classical monocyte</t>
+  </si>
+  <si>
+    <t>dendritic cell</t>
+  </si>
+  <si>
+    <t>goblet cell</t>
+  </si>
+  <si>
+    <t>CD14-low, CD16-positive monocyte</t>
+  </si>
+  <si>
+    <t>ionocyte</t>
+  </si>
+  <si>
     <t>lymphatic vessel</t>
   </si>
   <si>
+    <t>macrophage</t>
+  </si>
+  <si>
+    <t>mesothelial cell</t>
+  </si>
+  <si>
+    <t>mucus secreting cell</t>
+  </si>
+  <si>
+    <t>neuroendocrine cell</t>
+  </si>
+  <si>
+    <t>myeloid cell</t>
+  </si>
+  <si>
+    <t>lymphocyte</t>
+  </si>
+  <si>
+    <t>serous secreting cell</t>
+  </si>
+  <si>
     <t>vein</t>
   </si>
   <si>
     <t>respiratory system smooth muscle</t>
-  </si>
-  <si>
-    <t>LMHA:00142</t>
-  </si>
-  <si>
-    <t>LMHA:00087</t>
-  </si>
-  <si>
-    <t>LMHA:00143</t>
-  </si>
-  <si>
-    <t>LMHA:00693</t>
-  </si>
-  <si>
-    <t>LMHA:00238</t>
-  </si>
-  <si>
-    <t>LMHA:00340</t>
-  </si>
-  <si>
-    <t>LMHA:00805</t>
-  </si>
-  <si>
-    <t>LMHA:00209</t>
-  </si>
-  <si>
-    <t>LMHA:00213</t>
-  </si>
-  <si>
-    <t>ciliated cells of terminal ciliated ducts of tracheal submucosal glands</t>
-  </si>
-  <si>
-    <t>basal cells of terminal ciliated ducts of tracheal submucosal glands</t>
-  </si>
-  <si>
-    <t>secretory cells of terminal ciliated ducts of tracheal submucosal glands</t>
-  </si>
-  <si>
-    <t>epithelial cells of collecting ducts of tracheal submucosal glands</t>
-  </si>
-  <si>
-    <t>mucus cells of tracheal submucosal glands</t>
-  </si>
-  <si>
-    <t>serous cells of tracheal submucosal glands</t>
-  </si>
-  <si>
-    <t>Venous endothelial cell</t>
-  </si>
-  <si>
-    <t>ciliated cells of terminal ciliated ducts of submucosal glands</t>
-  </si>
-  <si>
-    <t>basal cells of terminal ciliated ducts of submucosal glands</t>
-  </si>
-  <si>
-    <t>secretory cells of terminal ciliated ducts of submucosal glands</t>
-  </si>
-  <si>
-    <t>epithelial cells of collecting ducts of submucosal glands</t>
-  </si>
-  <si>
-    <t>mucus cells of submucosal glands</t>
-  </si>
-  <si>
-    <t>serous cells of submucosal glands</t>
-  </si>
-  <si>
-    <t>Pulmonary vein endothelial cell</t>
-  </si>
-  <si>
-    <t>venous endothelial cell</t>
-  </si>
-  <si>
-    <t>Interstitial macrophage</t>
-  </si>
-  <si>
-    <t>AZ.CT/ID</t>
-  </si>
-  <si>
-    <t>AZ.CT/LABEL</t>
-  </si>
-  <si>
-    <t>ASCTB.CT/ID</t>
-  </si>
-  <si>
-    <t>ASCTB.CT/LABEL</t>
-  </si>
-  <si>
-    <t>CL:0002062</t>
-  </si>
-  <si>
-    <t>CL:0002063</t>
-  </si>
-  <si>
-    <t>CL:0000236</t>
-  </si>
-  <si>
-    <t>CL:0000158</t>
-  </si>
-  <si>
-    <t>CL:0000186</t>
-  </si>
-  <si>
-    <t>CL:0000623</t>
-  </si>
-  <si>
-    <t>CL:0000814</t>
-  </si>
-  <si>
-    <t>CL:0000669</t>
-  </si>
-  <si>
-    <t>CL:0000786</t>
-  </si>
-  <si>
-    <t>CL:0000784</t>
-  </si>
-  <si>
-    <t>CL:0000895</t>
-  </si>
-  <si>
-    <t>CL:0000900</t>
-  </si>
-  <si>
-    <t>CL:0000860</t>
-  </si>
-  <si>
-    <t>CL:0000875</t>
-  </si>
-  <si>
-    <t>type I pneumocyte</t>
-  </si>
-  <si>
-    <t>type II pneumocyte</t>
-  </si>
-  <si>
-    <t>B cell</t>
-  </si>
-  <si>
-    <t>club cell</t>
-  </si>
-  <si>
-    <t>myofibroblast cell</t>
-  </si>
-  <si>
-    <t>natural killer cell</t>
-  </si>
-  <si>
-    <t>mature NK T cell</t>
-  </si>
-  <si>
-    <t>pericyte cell</t>
-  </si>
-  <si>
-    <t>plasma cell</t>
-  </si>
-  <si>
-    <t>plasmacytoid dendritic cell</t>
-  </si>
-  <si>
-    <t>naive thymus-derived CD4-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>naive thymus-derived CD8-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>classical monocyte</t>
-  </si>
-  <si>
-    <t>non-classical monocyte</t>
-  </si>
-  <si>
-    <t>club cell of bronchiole</t>
-  </si>
-  <si>
-    <t>secondary crest myofibroblasts</t>
-  </si>
-  <si>
-    <t>natural killer</t>
-  </si>
-  <si>
-    <t>NK T cell</t>
-  </si>
-  <si>
-    <t>pericyte</t>
-  </si>
-  <si>
-    <t>CD4+ T cell naive</t>
-  </si>
-  <si>
-    <t>CD8+ T cell naive</t>
-  </si>
-  <si>
-    <t>Classical Monocyte</t>
-  </si>
-  <si>
-    <t>Non-classical monocyte</t>
-  </si>
-  <si>
-    <t>CL:1000388</t>
-  </si>
-  <si>
-    <t>brush cell of epithelium of trachea</t>
-  </si>
-  <si>
-    <t>Match Found</t>
-  </si>
-  <si>
-    <t>Hierarchy Length</t>
-  </si>
-  <si>
-    <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>CL:0000057</t>
-  </si>
-  <si>
-    <t>CL:0000192</t>
-  </si>
-  <si>
-    <t>CL:0000646</t>
-  </si>
-  <si>
-    <t>CL:0000766</t>
-  </si>
-  <si>
-    <t>CL:0002328</t>
-  </si>
-  <si>
-    <t>CL:0002144</t>
-  </si>
-  <si>
-    <t>CL:0000624</t>
-  </si>
-  <si>
-    <t>CL:0000625</t>
-  </si>
-  <si>
-    <t>CL:0000064</t>
-  </si>
-  <si>
-    <t>CL:0002057</t>
-  </si>
-  <si>
-    <t>CL:0000451</t>
-  </si>
-  <si>
-    <t>CL:0000160</t>
-  </si>
-  <si>
-    <t>CL:0002396</t>
-  </si>
-  <si>
-    <t>CL:0005006</t>
-  </si>
-  <si>
-    <t>CL:0000235</t>
-  </si>
-  <si>
-    <t>CL:0000077</t>
-  </si>
-  <si>
-    <t>CL:0000319</t>
-  </si>
-  <si>
-    <t>CL:0000165</t>
-  </si>
-  <si>
-    <t>CL:0000763</t>
-  </si>
-  <si>
-    <t>CL:0000542</t>
-  </si>
-  <si>
-    <t>CL:0000313</t>
-  </si>
-  <si>
-    <t>CL:0002393</t>
-  </si>
-  <si>
-    <t>CL:0000782</t>
-  </si>
-  <si>
-    <t>CL:0000359</t>
-  </si>
-  <si>
-    <t>fibroblast</t>
-  </si>
-  <si>
-    <t>smooth muscle cell</t>
-  </si>
-  <si>
-    <t>basal cell</t>
-  </si>
-  <si>
-    <t>myeloid leukocyte</t>
-  </si>
-  <si>
-    <t>bronchial epithelial cell</t>
-  </si>
-  <si>
-    <t>capillary endothelial cell</t>
-  </si>
-  <si>
-    <t>CD4-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>CD8-positive, alpha-beta T cell</t>
-  </si>
-  <si>
-    <t>ciliated cell</t>
-  </si>
-  <si>
-    <t>CD14-positive, CD16-negative classical monocyte</t>
-  </si>
-  <si>
-    <t>dendritic cell</t>
-  </si>
-  <si>
-    <t>goblet cell</t>
-  </si>
-  <si>
-    <t>CD14-low, CD16-positive monocyte</t>
-  </si>
-  <si>
-    <t>ionocyte</t>
-  </si>
-  <si>
-    <t>macrophage</t>
-  </si>
-  <si>
-    <t>mesothelial cell</t>
-  </si>
-  <si>
-    <t>mucus secreting cell</t>
-  </si>
-  <si>
-    <t>neuroendocrine cell</t>
-  </si>
-  <si>
-    <t>myeloid cell</t>
-  </si>
-  <si>
-    <t>lymphocyte</t>
-  </si>
-  <si>
-    <t>serous secreting cell</t>
   </si>
   <si>
     <t>intermediate monocyte</t>
@@ -1375,424 +1373,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
@@ -1876,292 +1456,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2170,212 +1464,212 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2404,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -2422,122 +1716,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2552,10 +1846,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2575,7 +1869,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -2588,7 +1882,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -2616,10 +1910,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2637,7 +1931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -2647,33 +1941,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>143</v>
@@ -2693,10 +1987,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>143</v>
@@ -2716,10 +2010,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>143</v>
@@ -2739,10 +2033,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>143</v>
@@ -2762,10 +2056,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>143</v>
@@ -2785,10 +2079,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -2808,10 +2102,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>143</v>
@@ -2831,10 +2125,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>143</v>
@@ -2854,10 +2148,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>144</v>
@@ -2877,10 +2171,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -2900,10 +2194,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>143</v>
@@ -2923,19 +2217,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2946,10 +2240,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
         <v>143</v>
@@ -2969,10 +2263,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -2992,19 +2286,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
         <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -3015,10 +2309,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
         <v>143</v>
@@ -3038,10 +2332,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>143</v>
@@ -3061,10 +2355,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -3084,10 +2378,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>143</v>
@@ -3107,10 +2401,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
         <v>143</v>
@@ -3130,10 +2424,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>143</v>
@@ -3153,10 +2447,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
         <v>143</v>
@@ -3176,10 +2470,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
         <v>143</v>
@@ -3199,10 +2493,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
         <v>143</v>
@@ -3222,10 +2516,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
         <v>143</v>
@@ -3245,10 +2539,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
         <v>143</v>
@@ -3268,7 +2562,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>140</v>
@@ -3291,7 +2585,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>141</v>
@@ -3314,7 +2608,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>142</v>
@@ -3340,7 +2634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -3350,25 +2644,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3428,10 +2722,10 @@
         <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -3474,10 +2768,10 @@
         <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3497,10 +2791,10 @@
         <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3589,7 +2883,7 @@
         <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
         <v>142</v>
@@ -3612,10 +2906,10 @@
         <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -3750,10 +3044,10 @@
         <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -3773,10 +3067,10 @@
         <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -3819,7 +3113,7 @@
         <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>142</v>
@@ -3842,10 +3136,10 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -3865,10 +3159,10 @@
         <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -3888,10 +3182,10 @@
         <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -3934,10 +3228,10 @@
         <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -4049,7 +3343,7 @@
         <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>142</v>
@@ -4095,10 +3389,10 @@
         <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -4164,10 +3458,10 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -4187,10 +3481,10 @@
         <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -4210,10 +3504,10 @@
         <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -4233,10 +3527,10 @@
         <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -4256,10 +3550,10 @@
         <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -4279,7 +3573,7 @@
         <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>141</v>
@@ -4302,10 +3596,10 @@
         <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -4325,10 +3619,10 @@
         <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F43">
         <v>7</v>
@@ -4348,10 +3642,10 @@
         <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F44">
         <v>7</v>
@@ -4371,10 +3665,10 @@
         <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -4394,10 +3688,10 @@
         <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -4417,10 +3711,10 @@
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -4440,10 +3734,10 @@
         <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -4463,10 +3757,10 @@
         <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -4519,6 +3813,424 @@
       </c>
       <c r="G51" t="s">
         <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Data/Final/lung.xlsx
+++ b/Python/Data/Final/lung.xlsx
@@ -14,13 +14,14 @@
     <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
     <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
     <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
+    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="342">
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -3552,4 +3553,393 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>